--- a/biology/Botanique/Pucciniales/Pucciniales.xlsx
+++ b/biology/Botanique/Pucciniales/Pucciniales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pucciniales (anciennement Uredinales) sont un ordre de champignons basidiomycètes de la classe des Pucciniomycetes.
-Les espèces de l'ordre des Pucciniales sont toutes des parasites obligatoires, pathogènes des plantes vasculaires, responsables de la plupart des maladies appelées « rouilles ». On dénombre environ 7000 espèces réparties en 150 genres et 13 familles[1].
+Les espèces de l'ordre des Pucciniales sont toutes des parasites obligatoires, pathogènes des plantes vasculaires, responsables de la plupart des maladies appelées « rouilles ». On dénombre environ 7000 espèces réparties en 150 genres et 13 familles.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (3 novembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (3 novembre 2014) :
 famille des Chaconiaceae
 famille des Coleosporiaceae
 famille des Cronartiaceae
@@ -530,7 +544,7 @@
 famille des Raveneliaceae
 famille des Uncolaceae
 famille des Uropyxidaceae
-Selon ITIS      (3 novembre 2014)[3] :
+Selon ITIS      (3 novembre 2014) :
 famille des Chaconiaceae
 famille des Coleosporiaceae
 famille des Cronartiaceae
